--- a/sputnik/personal/ee/202ee.xlsx
+++ b/sputnik/personal/ee/202ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -24,18 +24,12 @@
     <t>Т2</t>
   </si>
   <si>
-    <t>День/ночь</t>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
     <t xml:space="preserve">Тариф </t>
   </si>
   <si>
-    <t>Сумма оплаты</t>
-  </si>
-  <si>
     <t>Дата оплаты</t>
   </si>
   <si>
@@ -43,6 +37,21 @@
   </si>
   <si>
     <t xml:space="preserve">кВт/ч к оплате </t>
+  </si>
+  <si>
+    <t>День/ ночь</t>
+  </si>
+  <si>
+    <t>Начислено по представленым показаниям и действующему тарифу</t>
+  </si>
+  <si>
+    <t>всего начислено к оплате</t>
+  </si>
+  <si>
+    <t>оплачено</t>
+  </si>
+  <si>
+    <t>итого за период</t>
   </si>
 </sst>
 </file>
@@ -50,9 +59,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="#,##0.00\ &quot;₽&quot;"/>
+    <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₽&quot;"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -75,14 +84,6 @@
       <family val="1"/>
       <charset val="204"/>
     </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -92,7 +93,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -115,42 +116,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -160,7 +132,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -169,30 +141,7 @@
     <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -500,355 +449,214 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F10:F11"/>
+      <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="13.42578125" style="1" customWidth="1"/>
     <col min="4" max="4" width="21" style="1" customWidth="1"/>
     <col min="5" max="5" width="10.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="20.28515625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="13" style="1" customWidth="1"/>
     <col min="9" max="9" width="10.28515625" style="1" customWidth="1"/>
     <col min="10" max="12" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:8" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
-        <v>43246</v>
-      </c>
-      <c r="B2" s="3" t="s">
+      <c r="G1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>43366</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="5">
-        <v>588</v>
-      </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
+      <c r="C2" s="2">
+        <v>700</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="7"/>
       <c r="F2" s="5"/>
-    </row>
-    <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+    </row>
+    <row r="3" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="5">
-        <v>389</v>
-      </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
+      <c r="C3" s="2">
+        <v>479</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
       <c r="F3" s="5"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
     </row>
     <row r="4" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
-        <v>43281</v>
-      </c>
-      <c r="B4" s="3" t="s">
+      <c r="A4" s="3">
+        <v>43611</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="3">
-        <v>658</v>
-      </c>
-      <c r="D4" s="3">
-        <f t="shared" ref="D4:D11" si="0">C4-C2</f>
-        <v>70</v>
-      </c>
-      <c r="E4" s="8">
-        <v>4.29</v>
-      </c>
-      <c r="F4" s="6">
-        <f t="shared" ref="F4:F9" si="1">D4*E4</f>
-        <v>300.3</v>
+      <c r="C4" s="2">
+        <v>800</v>
+      </c>
+      <c r="D4" s="2">
+        <f t="shared" ref="D4:D7" si="0">C4-C2</f>
+        <v>100</v>
+      </c>
+      <c r="E4" s="7">
+        <v>4.57</v>
+      </c>
+      <c r="F4" s="5">
+        <f t="shared" ref="F4:F5" si="1">D4*E4</f>
+        <v>457</v>
+      </c>
+      <c r="G4" s="8">
+        <f>SUM(F4,F5)</f>
+        <v>696</v>
+      </c>
+      <c r="H4" s="8">
+        <v>696</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="3" t="s">
+      <c r="A5" s="3"/>
+      <c r="B5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="3">
-        <v>459</v>
-      </c>
-      <c r="D5" s="3">
-        <f t="shared" si="0"/>
-        <v>70</v>
-      </c>
-      <c r="E5" s="3">
-        <v>2.17</v>
-      </c>
-      <c r="F5" s="6">
-        <f t="shared" si="1"/>
-        <v>151.9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
-        <v>43366</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="3">
-        <v>700</v>
-      </c>
-      <c r="D6" s="3">
-        <f t="shared" si="0"/>
-        <v>42</v>
-      </c>
-      <c r="E6" s="8">
-        <v>4.5</v>
-      </c>
-      <c r="F6" s="6">
-        <f t="shared" si="1"/>
-        <v>189</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" s="3">
-        <v>479</v>
-      </c>
-      <c r="D7" s="3">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="E7" s="3">
-        <v>2.35</v>
-      </c>
-      <c r="F7" s="6">
-        <f t="shared" si="1"/>
-        <v>47</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
-        <v>43611</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C8" s="3">
-        <v>800</v>
-      </c>
-      <c r="D8" s="3">
+      <c r="C5" s="2">
+        <v>579</v>
+      </c>
+      <c r="D5" s="2">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="E8" s="8">
-        <v>4.57</v>
-      </c>
-      <c r="F8" s="6">
-        <f t="shared" si="1"/>
-        <v>457</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" s="3">
-        <v>579</v>
-      </c>
-      <c r="D9" s="3">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-      <c r="E9" s="3">
+      <c r="E5" s="2">
         <v>2.39</v>
       </c>
-      <c r="F9" s="6">
+      <c r="F5" s="5">
         <f t="shared" si="1"/>
         <v>239</v>
       </c>
-      <c r="H9" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="4">
+      <c r="G5" s="8"/>
+      <c r="H5" s="8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
         <v>43710</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C6" s="2">
         <v>850</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D6" s="2">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="E10" s="8">
+      <c r="E6" s="7">
         <v>4.49</v>
       </c>
-      <c r="F10" s="6">
-        <f>D10*E10</f>
+      <c r="F6" s="5">
+        <f>D6*E6</f>
         <v>224.5</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="3" t="s">
+      <c r="G6" s="8">
+        <f>SUM(F6,F7)</f>
+        <v>346</v>
+      </c>
+      <c r="H6" s="8">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="3"/>
+      <c r="B7" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C7" s="2">
         <v>629</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D7" s="2">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E7" s="2">
         <v>2.4300000000000002</v>
       </c>
-      <c r="F11" s="6">
-        <f>D11*E11</f>
+      <c r="F7" s="5">
+        <f>D7*E7</f>
         <v>121.50000000000001</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="6"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="6"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="6"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="6"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="9"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="6"/>
-    </row>
-    <row r="17" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="14"/>
-      <c r="B17" s="15"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="16"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="10"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="13"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="6"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="9"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="6"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="6"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="3"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" s="8">
+        <f>SUM(G2:G7)</f>
+        <v>1042</v>
+      </c>
+      <c r="H8" s="8">
+        <f>SUM(H2:H7)</f>
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="3"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/202ee.xlsx
+++ b/sputnik/personal/ee/202ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -449,10 +449,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:H1"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -631,32 +631,83 @@
       <c r="H7" s="8"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="3"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="5" t="s">
-        <v>11</v>
+      <c r="A8" s="3">
+        <v>43969</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="2">
+        <v>950</v>
+      </c>
+      <c r="D8" s="2">
+        <f t="shared" ref="D8:D9" si="2">C8-C6</f>
+        <v>100</v>
+      </c>
+      <c r="E8" s="7">
+        <v>4.49</v>
+      </c>
+      <c r="F8" s="5">
+        <f>D8*E8</f>
+        <v>449</v>
       </c>
       <c r="G8" s="8">
-        <f>SUM(G2:G7)</f>
-        <v>1042</v>
+        <f>SUM(F8,F9)</f>
+        <v>692</v>
       </c>
       <c r="H8" s="8">
-        <f>SUM(H2:H7)</f>
-        <v>1042</v>
+        <v>692</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="5"/>
+      <c r="B9" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="2">
+        <v>729</v>
+      </c>
+      <c r="D9" s="2">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="E9" s="2">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F9" s="5">
+        <f>D9*E9</f>
+        <v>243.00000000000003</v>
+      </c>
       <c r="G9" s="8"/>
       <c r="H9" s="8"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="3"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" s="8">
+        <f>SUM(G2:G9)</f>
+        <v>1734</v>
+      </c>
+      <c r="H10" s="8">
+        <f>SUM(H2:H9)</f>
+        <v>1734</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="3"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/202ee.xlsx
+++ b/sputnik/personal/ee/202ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -449,10 +449,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -682,32 +682,83 @@
       <c r="H9" s="8"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="5" t="s">
-        <v>11</v>
+      <c r="A10" s="3">
+        <v>43997</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="2">
+        <v>1050</v>
+      </c>
+      <c r="D10" s="2">
+        <f t="shared" ref="D10:D11" si="3">C10-C8</f>
+        <v>100</v>
+      </c>
+      <c r="E10" s="7">
+        <v>4.49</v>
+      </c>
+      <c r="F10" s="5">
+        <f>D10*E10</f>
+        <v>449</v>
       </c>
       <c r="G10" s="8">
-        <f>SUM(G2:G9)</f>
-        <v>1734</v>
+        <f>SUM(F10,F11)</f>
+        <v>692</v>
       </c>
       <c r="H10" s="8">
-        <f>SUM(H2:H9)</f>
-        <v>1734</v>
+        <v>692</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="5"/>
+      <c r="B11" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="2">
+        <v>829</v>
+      </c>
+      <c r="D11" s="2">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="E11" s="2">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F11" s="5">
+        <f>D11*E11</f>
+        <v>243.00000000000003</v>
+      </c>
       <c r="G11" s="8"/>
       <c r="H11" s="8"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="3"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" s="8">
+        <f>SUM(G2:G11)</f>
+        <v>2426</v>
+      </c>
+      <c r="H12" s="8">
+        <f>SUM(H2:H11)</f>
+        <v>2426</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="3"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/202ee.xlsx
+++ b/sputnik/personal/ee/202ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -449,10 +449,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -597,7 +597,7 @@
         <v>4.49</v>
       </c>
       <c r="F6" s="5">
-        <f>D6*E6</f>
+        <f t="shared" ref="F6:F11" si="2">D6*E6</f>
         <v>224.5</v>
       </c>
       <c r="G6" s="8">
@@ -624,7 +624,7 @@
         <v>2.4300000000000002</v>
       </c>
       <c r="F7" s="5">
-        <f>D7*E7</f>
+        <f t="shared" si="2"/>
         <v>121.50000000000001</v>
       </c>
       <c r="G7" s="8"/>
@@ -641,14 +641,14 @@
         <v>950</v>
       </c>
       <c r="D8" s="2">
-        <f t="shared" ref="D8:D9" si="2">C8-C6</f>
+        <f t="shared" ref="D8:D9" si="3">C8-C6</f>
         <v>100</v>
       </c>
       <c r="E8" s="7">
         <v>4.49</v>
       </c>
       <c r="F8" s="5">
-        <f>D8*E8</f>
+        <f t="shared" si="2"/>
         <v>449</v>
       </c>
       <c r="G8" s="8">
@@ -668,14 +668,14 @@
         <v>729</v>
       </c>
       <c r="D9" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>100</v>
       </c>
       <c r="E9" s="2">
         <v>2.4300000000000002</v>
       </c>
       <c r="F9" s="5">
-        <f>D9*E9</f>
+        <f t="shared" si="2"/>
         <v>243.00000000000003</v>
       </c>
       <c r="G9" s="8"/>
@@ -692,14 +692,14 @@
         <v>1050</v>
       </c>
       <c r="D10" s="2">
-        <f t="shared" ref="D10:D11" si="3">C10-C8</f>
+        <f t="shared" ref="D10:D11" si="4">C10-C8</f>
         <v>100</v>
       </c>
       <c r="E10" s="7">
         <v>4.49</v>
       </c>
       <c r="F10" s="5">
-        <f>D10*E10</f>
+        <f t="shared" si="2"/>
         <v>449</v>
       </c>
       <c r="G10" s="8">
@@ -719,46 +719,97 @@
         <v>829</v>
       </c>
       <c r="D11" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
       <c r="E11" s="2">
         <v>2.4300000000000002</v>
       </c>
       <c r="F11" s="5">
-        <f>D11*E11</f>
+        <f t="shared" si="2"/>
         <v>243.00000000000003</v>
       </c>
       <c r="G11" s="8"/>
       <c r="H11" s="8"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="3"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="5" t="s">
+      <c r="A12" s="3">
+        <v>44067</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="2">
+        <v>1100</v>
+      </c>
+      <c r="D12" s="2">
+        <f t="shared" ref="D12:D13" si="5">C12-C10</f>
+        <v>50</v>
+      </c>
+      <c r="E12" s="7">
+        <v>4.71</v>
+      </c>
+      <c r="F12" s="5">
+        <f t="shared" ref="F12:F13" si="6">D12*E12</f>
+        <v>235.5</v>
+      </c>
+      <c r="G12" s="8">
+        <f>SUM(F12,F13)</f>
+        <v>286.5</v>
+      </c>
+      <c r="H12" s="8">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="3"/>
+      <c r="B13" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="2">
+        <v>849</v>
+      </c>
+      <c r="D13" s="2">
+        <f t="shared" si="5"/>
+        <v>20</v>
+      </c>
+      <c r="E13" s="2">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F13" s="5">
+        <f t="shared" si="6"/>
+        <v>51</v>
+      </c>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="3"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G12" s="8">
+      <c r="G14" s="8">
         <f>SUM(G2:G11)</f>
         <v>2426</v>
       </c>
-      <c r="H12" s="8">
+      <c r="H14" s="8">
         <f>SUM(H2:H11)</f>
         <v>2426</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="3"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/202ee.xlsx
+++ b/sputnik/personal/ee/202ee.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Мама\Рабочий стол\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\USB-накопитель на 14.03.2021\14.06.2021.ОБНОВЛЕНИЕ САЙТА\Эл.энергия ee 14.06.2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="10">
   <si>
     <t>Дата оплаты</t>
   </si>
@@ -439,10 +439,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -483,31 +483,31 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
-        <v>44067</v>
+        <v>44362</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="3">
-        <v>1100</v>
+        <v>1120</v>
       </c>
       <c r="D2" s="3">
         <f>SUM(C2,-C4)</f>
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="E2" s="3">
         <v>4.71</v>
       </c>
       <c r="F2" s="8">
-        <f t="shared" ref="F2:F9" si="0">D2*E2</f>
-        <v>235.5</v>
+        <f t="shared" ref="F2:F3" si="0">D2*E2</f>
+        <v>94.2</v>
       </c>
       <c r="G2" s="8">
         <f>SUM(F2,F3)</f>
-        <v>286.5</v>
+        <v>94.2</v>
       </c>
       <c r="H2" s="8">
-        <v>286.5</v>
+        <v>94.2</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -520,45 +520,45 @@
       </c>
       <c r="D3" s="3">
         <f>SUM(C3,-C5)</f>
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E3" s="3">
         <v>2.5499999999999998</v>
       </c>
       <c r="F3" s="8">
         <f t="shared" si="0"/>
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="G3" s="8"/>
       <c r="H3" s="8"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
-        <v>43997</v>
+        <v>44067</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="3">
-        <v>1050</v>
+        <v>1100</v>
       </c>
       <c r="D4" s="3">
         <f>SUM(C4,-C6)</f>
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="E4" s="3">
-        <v>4.49</v>
+        <v>4.71</v>
       </c>
       <c r="F4" s="8">
-        <f t="shared" si="0"/>
-        <v>449</v>
+        <f t="shared" ref="F4:F11" si="1">D4*E4</f>
+        <v>235.5</v>
       </c>
       <c r="G4" s="8">
         <f>SUM(F4,F5)</f>
-        <v>692</v>
+        <v>286.5</v>
       </c>
       <c r="H4" s="8">
-        <v>692</v>
+        <v>286.5</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -567,45 +567,45 @@
         <v>9</v>
       </c>
       <c r="C5" s="3">
-        <v>829</v>
+        <v>849</v>
       </c>
       <c r="D5" s="3">
         <f>SUM(C5,-C7)</f>
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="E5" s="3">
-        <v>2.4300000000000002</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="F5" s="8">
-        <f t="shared" si="0"/>
-        <v>243.00000000000003</v>
+        <f t="shared" si="1"/>
+        <v>51</v>
       </c>
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
-        <v>43969</v>
+        <v>43997</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="3">
-        <v>950</v>
+        <v>1050</v>
       </c>
       <c r="D6" s="3">
-        <f t="shared" ref="D6:D9" si="1">SUM(C6,-C8)</f>
+        <f>SUM(C6,-C8)</f>
         <v>100</v>
       </c>
       <c r="E6" s="3">
         <v>4.49</v>
       </c>
       <c r="F6" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>449</v>
       </c>
       <c r="G6" s="8">
-        <f t="shared" ref="G5:G9" si="2">SUM(F6,F7)</f>
+        <f>SUM(F6,F7)</f>
         <v>692</v>
       </c>
       <c r="H6" s="8">
@@ -618,17 +618,17 @@
         <v>9</v>
       </c>
       <c r="C7" s="3">
-        <v>729</v>
+        <v>829</v>
       </c>
       <c r="D7" s="3">
-        <f t="shared" si="1"/>
+        <f>SUM(C7,-C9)</f>
         <v>100</v>
       </c>
       <c r="E7" s="3">
         <v>2.4300000000000002</v>
       </c>
       <c r="F7" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>243.00000000000003</v>
       </c>
       <c r="G7" s="8"/>
@@ -636,31 +636,31 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
-        <v>43710</v>
+        <v>43969</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="3">
-        <v>850</v>
+        <v>950</v>
       </c>
       <c r="D8" s="3">
-        <f t="shared" si="1"/>
-        <v>50</v>
+        <f t="shared" ref="D8:D11" si="2">SUM(C8,-C10)</f>
+        <v>100</v>
       </c>
       <c r="E8" s="3">
         <v>4.49</v>
       </c>
       <c r="F8" s="8">
-        <f t="shared" si="0"/>
-        <v>224.5</v>
+        <f t="shared" si="1"/>
+        <v>449</v>
       </c>
       <c r="G8" s="8">
-        <f t="shared" si="2"/>
-        <v>346</v>
+        <f t="shared" ref="G8:G10" si="3">SUM(F8,F9)</f>
+        <v>692</v>
       </c>
       <c r="H8" s="8">
-        <v>346</v>
+        <v>692</v>
       </c>
     </row>
     <row r="9" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -669,37 +669,50 @@
         <v>9</v>
       </c>
       <c r="C9" s="3">
-        <v>629</v>
+        <v>729</v>
       </c>
       <c r="D9" s="3">
-        <f t="shared" si="1"/>
-        <v>50</v>
+        <f t="shared" si="2"/>
+        <v>100</v>
       </c>
       <c r="E9" s="3">
         <v>2.4300000000000002</v>
       </c>
       <c r="F9" s="8">
-        <f t="shared" si="0"/>
-        <v>121.50000000000001</v>
+        <f t="shared" si="1"/>
+        <v>243.00000000000003</v>
       </c>
       <c r="G9" s="8"/>
       <c r="H9" s="8"/>
     </row>
     <row r="10" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
-        <v>43611</v>
+        <v>43710</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C10" s="3">
-        <v>800</v>
-      </c>
-      <c r="D10" s="9"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="8"/>
+        <v>850</v>
+      </c>
+      <c r="D10" s="3">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="E10" s="3">
+        <v>4.49</v>
+      </c>
+      <c r="F10" s="8">
+        <f t="shared" si="1"/>
+        <v>224.5</v>
+      </c>
+      <c r="G10" s="8">
+        <f t="shared" si="3"/>
+        <v>346</v>
+      </c>
+      <c r="H10" s="8">
+        <v>346</v>
+      </c>
     </row>
     <row r="11" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
@@ -707,59 +720,111 @@
         <v>9</v>
       </c>
       <c r="C11" s="3">
-        <v>579</v>
-      </c>
-      <c r="D11" s="9"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
+        <v>629</v>
+      </c>
+      <c r="D11" s="3">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="E11" s="3">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F11" s="8">
+        <f t="shared" si="1"/>
+        <v>121.50000000000001</v>
+      </c>
+      <c r="G11" s="8"/>
       <c r="H11" s="8"/>
     </row>
     <row r="12" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
+      <c r="A12" s="4">
+        <v>43611</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="3">
+        <v>800</v>
+      </c>
+      <c r="D12" s="9"/>
       <c r="E12" s="3"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
       <c r="H12" s="8"/>
     </row>
     <row r="13" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
+      <c r="B13" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="3">
+        <v>579</v>
+      </c>
+      <c r="D13" s="9"/>
       <c r="E13" s="3"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
       <c r="H13" s="8"/>
     </row>
     <row r="14" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="B14" s="5"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="10"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c r="H14" s="8"/>
     </row>
     <row r="15" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="7"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
+      <c r="A15" s="4"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
     </row>
     <row r="16" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="7"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-    </row>
-    <row r="17" spans="2:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="4"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+    </row>
+    <row r="17" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B17" s="7"/>
-    </row>
-    <row r="18" spans="2:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+    </row>
+    <row r="18" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B18" s="7"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="6"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="6"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/sputnik/personal/ee/202ee.xlsx
+++ b/sputnik/personal/ee/202ee.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\USB-накопитель на 14.03.2021\14.06.2021.ОБНОВЛЕНИЕ САЙТА\Эл.энергия ee 14.06.2021\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\USB-накопитель на 14.03.2021\18.06.2021.ОБНОВЛЕНИЕ САЙТА\Эл.энергия по 28.06.2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="10">
   <si>
     <t>Дата оплаты</t>
   </si>
@@ -439,10 +439,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -483,31 +483,31 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
-        <v>44362</v>
+        <v>44375</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="3">
-        <v>1120</v>
+        <v>1220</v>
       </c>
       <c r="D2" s="3">
-        <f>SUM(C2,-C4)</f>
-        <v>20</v>
+        <f t="shared" ref="D2:D9" si="0">SUM(C2,-C4)</f>
+        <v>100</v>
       </c>
       <c r="E2" s="3">
         <v>4.71</v>
       </c>
       <c r="F2" s="8">
-        <f t="shared" ref="F2:F3" si="0">D2*E2</f>
-        <v>94.2</v>
+        <f t="shared" ref="F2:F3" si="1">D2*E2</f>
+        <v>471</v>
       </c>
       <c r="G2" s="8">
         <f>SUM(F2,F3)</f>
-        <v>94.2</v>
+        <v>601.04999999999995</v>
       </c>
       <c r="H2" s="8">
-        <v>94.2</v>
+        <v>601.04999999999995</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -516,49 +516,49 @@
         <v>9</v>
       </c>
       <c r="C3" s="3">
-        <v>849</v>
+        <v>900</v>
       </c>
       <c r="D3" s="3">
-        <f>SUM(C3,-C5)</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>51</v>
       </c>
       <c r="E3" s="3">
         <v>2.5499999999999998</v>
       </c>
       <c r="F3" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>130.04999999999998</v>
       </c>
       <c r="G3" s="8"/>
       <c r="H3" s="8"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
-        <v>44067</v>
+        <v>44362</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="3">
-        <v>1100</v>
+        <v>1120</v>
       </c>
       <c r="D4" s="3">
-        <f>SUM(C4,-C6)</f>
-        <v>50</v>
+        <f t="shared" si="0"/>
+        <v>20</v>
       </c>
       <c r="E4" s="3">
         <v>4.71</v>
       </c>
       <c r="F4" s="8">
-        <f t="shared" ref="F4:F11" si="1">D4*E4</f>
-        <v>235.5</v>
+        <f t="shared" ref="F4:F5" si="2">D4*E4</f>
+        <v>94.2</v>
       </c>
       <c r="G4" s="8">
         <f>SUM(F4,F5)</f>
-        <v>286.5</v>
+        <v>94.2</v>
       </c>
       <c r="H4" s="8">
-        <v>286.5</v>
+        <v>94.2</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -570,46 +570,46 @@
         <v>849</v>
       </c>
       <c r="D5" s="3">
-        <f>SUM(C5,-C7)</f>
-        <v>20</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="E5" s="3">
         <v>2.5499999999999998</v>
       </c>
       <c r="F5" s="8">
-        <f t="shared" si="1"/>
-        <v>51</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
-        <v>43997</v>
+        <v>44067</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="3">
-        <v>1050</v>
+        <v>1100</v>
       </c>
       <c r="D6" s="3">
-        <f>SUM(C6,-C8)</f>
-        <v>100</v>
+        <f t="shared" si="0"/>
+        <v>50</v>
       </c>
       <c r="E6" s="3">
-        <v>4.49</v>
+        <v>4.71</v>
       </c>
       <c r="F6" s="8">
-        <f t="shared" si="1"/>
-        <v>449</v>
+        <f t="shared" ref="F6:F13" si="3">D6*E6</f>
+        <v>235.5</v>
       </c>
       <c r="G6" s="8">
         <f>SUM(F6,F7)</f>
-        <v>692</v>
+        <v>286.5</v>
       </c>
       <c r="H6" s="8">
-        <v>692</v>
+        <v>286.5</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -618,45 +618,45 @@
         <v>9</v>
       </c>
       <c r="C7" s="3">
-        <v>829</v>
+        <v>849</v>
       </c>
       <c r="D7" s="3">
-        <f>SUM(C7,-C9)</f>
-        <v>100</v>
+        <f t="shared" si="0"/>
+        <v>20</v>
       </c>
       <c r="E7" s="3">
-        <v>2.4300000000000002</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="F7" s="8">
-        <f t="shared" si="1"/>
-        <v>243.00000000000003</v>
+        <f t="shared" si="3"/>
+        <v>51</v>
       </c>
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
-        <v>43969</v>
+        <v>43997</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="3">
-        <v>950</v>
+        <v>1050</v>
       </c>
       <c r="D8" s="3">
-        <f t="shared" ref="D8:D11" si="2">SUM(C8,-C10)</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="E8" s="3">
         <v>4.49</v>
       </c>
       <c r="F8" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>449</v>
       </c>
       <c r="G8" s="8">
-        <f t="shared" ref="G8:G10" si="3">SUM(F8,F9)</f>
+        <f>SUM(F8,F9)</f>
         <v>692</v>
       </c>
       <c r="H8" s="8">
@@ -669,17 +669,17 @@
         <v>9</v>
       </c>
       <c r="C9" s="3">
-        <v>729</v>
+        <v>829</v>
       </c>
       <c r="D9" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="E9" s="3">
         <v>2.4300000000000002</v>
       </c>
       <c r="F9" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>243.00000000000003</v>
       </c>
       <c r="G9" s="8"/>
@@ -687,31 +687,31 @@
     </row>
     <row r="10" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
-        <v>43710</v>
+        <v>43969</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C10" s="3">
-        <v>850</v>
+        <v>950</v>
       </c>
       <c r="D10" s="3">
-        <f t="shared" si="2"/>
-        <v>50</v>
+        <f t="shared" ref="D10:D13" si="4">SUM(C10,-C12)</f>
+        <v>100</v>
       </c>
       <c r="E10" s="3">
         <v>4.49</v>
       </c>
       <c r="F10" s="8">
-        <f t="shared" si="1"/>
-        <v>224.5</v>
+        <f t="shared" si="3"/>
+        <v>449</v>
       </c>
       <c r="G10" s="8">
-        <f t="shared" si="3"/>
-        <v>346</v>
+        <f t="shared" ref="G10:G12" si="5">SUM(F10,F11)</f>
+        <v>692</v>
       </c>
       <c r="H10" s="8">
-        <v>346</v>
+        <v>692</v>
       </c>
     </row>
     <row r="11" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -720,37 +720,50 @@
         <v>9</v>
       </c>
       <c r="C11" s="3">
-        <v>629</v>
+        <v>729</v>
       </c>
       <c r="D11" s="3">
-        <f t="shared" si="2"/>
-        <v>50</v>
+        <f t="shared" si="4"/>
+        <v>100</v>
       </c>
       <c r="E11" s="3">
         <v>2.4300000000000002</v>
       </c>
       <c r="F11" s="8">
-        <f t="shared" si="1"/>
-        <v>121.50000000000001</v>
+        <f t="shared" si="3"/>
+        <v>243.00000000000003</v>
       </c>
       <c r="G11" s="8"/>
       <c r="H11" s="8"/>
     </row>
     <row r="12" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
-        <v>43611</v>
+        <v>43710</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C12" s="3">
-        <v>800</v>
-      </c>
-      <c r="D12" s="9"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="8"/>
+        <v>850</v>
+      </c>
+      <c r="D12" s="3">
+        <f t="shared" si="4"/>
+        <v>50</v>
+      </c>
+      <c r="E12" s="3">
+        <v>4.49</v>
+      </c>
+      <c r="F12" s="8">
+        <f t="shared" si="3"/>
+        <v>224.5</v>
+      </c>
+      <c r="G12" s="8">
+        <f t="shared" si="5"/>
+        <v>346</v>
+      </c>
+      <c r="H12" s="8">
+        <v>346</v>
+      </c>
     </row>
     <row r="13" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
@@ -758,53 +771,81 @@
         <v>9</v>
       </c>
       <c r="C13" s="3">
-        <v>579</v>
-      </c>
-      <c r="D13" s="9"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
+        <v>629</v>
+      </c>
+      <c r="D13" s="3">
+        <f t="shared" si="4"/>
+        <v>50</v>
+      </c>
+      <c r="E13" s="3">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F13" s="8">
+        <f t="shared" si="3"/>
+        <v>121.50000000000001</v>
+      </c>
+      <c r="G13" s="8"/>
       <c r="H13" s="8"/>
     </row>
     <row r="14" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
+      <c r="A14" s="4">
+        <v>43611</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="3">
+        <v>800</v>
+      </c>
+      <c r="D14" s="9"/>
       <c r="E14" s="3"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
       <c r="H14" s="8"/>
     </row>
     <row r="15" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
+      <c r="B15" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="3">
+        <v>579</v>
+      </c>
+      <c r="D15" s="9"/>
       <c r="E15" s="3"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
       <c r="H15" s="8"/>
     </row>
     <row r="16" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="5"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="10"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c r="H16" s="8"/>
     </row>
     <row r="17" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="7"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
+      <c r="A17" s="4"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
     </row>
     <row r="18" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="7"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
+      <c r="A18" s="4"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="6"/>
@@ -813,8 +854,8 @@
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="6"/>
@@ -823,8 +864,28 @@
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="6"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="6"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/sputnik/personal/ee/202ee.xlsx
+++ b/sputnik/personal/ee/202ee.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\USB-накопитель на 14.03.2021\18.06.2021.ОБНОВЛЕНИЕ САЙТА\Эл.энергия по 28.06.2021\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\USB-накопитель на 14.03.2021\23.07.2021.ОБНОВЛЕНИЕ САЙТА\Эл.энергия по 15.07.2021 вкл-но\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="10">
   <si>
     <t>Дата оплаты</t>
   </si>
@@ -439,10 +439,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -483,31 +483,31 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
-        <v>44375</v>
+        <v>44403</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="3">
-        <v>1220</v>
+        <v>1320</v>
       </c>
       <c r="D2" s="3">
-        <f t="shared" ref="D2:D9" si="0">SUM(C2,-C4)</f>
+        <f t="shared" ref="D2:D3" si="0">SUM(C2,-C4)</f>
         <v>100</v>
       </c>
       <c r="E2" s="3">
-        <v>4.71</v>
+        <v>4.96</v>
       </c>
       <c r="F2" s="8">
         <f t="shared" ref="F2:F3" si="1">D2*E2</f>
-        <v>471</v>
+        <v>496</v>
       </c>
       <c r="G2" s="8">
         <f>SUM(F2,F3)</f>
-        <v>601.04999999999995</v>
+        <v>630</v>
       </c>
       <c r="H2" s="8">
-        <v>601.04999999999995</v>
+        <v>630</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -516,49 +516,49 @@
         <v>9</v>
       </c>
       <c r="C3" s="3">
-        <v>900</v>
+        <v>950</v>
       </c>
       <c r="D3" s="3">
         <f t="shared" si="0"/>
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E3" s="3">
-        <v>2.5499999999999998</v>
+        <v>2.68</v>
       </c>
       <c r="F3" s="8">
         <f t="shared" si="1"/>
-        <v>130.04999999999998</v>
+        <v>134</v>
       </c>
       <c r="G3" s="8"/>
       <c r="H3" s="8"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
-        <v>44362</v>
+        <v>44375</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="3">
-        <v>1120</v>
+        <v>1220</v>
       </c>
       <c r="D4" s="3">
-        <f t="shared" si="0"/>
-        <v>20</v>
+        <f t="shared" ref="D4:D11" si="2">SUM(C4,-C6)</f>
+        <v>100</v>
       </c>
       <c r="E4" s="3">
         <v>4.71</v>
       </c>
       <c r="F4" s="8">
-        <f t="shared" ref="F4:F5" si="2">D4*E4</f>
-        <v>94.2</v>
+        <f t="shared" ref="F4:F5" si="3">D4*E4</f>
+        <v>471</v>
       </c>
       <c r="G4" s="8">
         <f>SUM(F4,F5)</f>
-        <v>94.2</v>
+        <v>601.04999999999995</v>
       </c>
       <c r="H4" s="8">
-        <v>94.2</v>
+        <v>601.04999999999995</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -567,49 +567,49 @@
         <v>9</v>
       </c>
       <c r="C5" s="3">
-        <v>849</v>
+        <v>900</v>
       </c>
       <c r="D5" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>51</v>
       </c>
       <c r="E5" s="3">
         <v>2.5499999999999998</v>
       </c>
       <c r="F5" s="8">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>130.04999999999998</v>
       </c>
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
-        <v>44067</v>
+        <v>44362</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="3">
-        <v>1100</v>
+        <v>1120</v>
       </c>
       <c r="D6" s="3">
-        <f t="shared" si="0"/>
-        <v>50</v>
+        <f t="shared" si="2"/>
+        <v>20</v>
       </c>
       <c r="E6" s="3">
         <v>4.71</v>
       </c>
       <c r="F6" s="8">
-        <f t="shared" ref="F6:F13" si="3">D6*E6</f>
-        <v>235.5</v>
+        <f t="shared" ref="F6:F7" si="4">D6*E6</f>
+        <v>94.2</v>
       </c>
       <c r="G6" s="8">
         <f>SUM(F6,F7)</f>
-        <v>286.5</v>
+        <v>94.2</v>
       </c>
       <c r="H6" s="8">
-        <v>286.5</v>
+        <v>94.2</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -621,46 +621,46 @@
         <v>849</v>
       </c>
       <c r="D7" s="3">
-        <f t="shared" si="0"/>
-        <v>20</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="E7" s="3">
         <v>2.5499999999999998</v>
       </c>
       <c r="F7" s="8">
-        <f t="shared" si="3"/>
-        <v>51</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
-        <v>43997</v>
+        <v>44067</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="3">
-        <v>1050</v>
+        <v>1100</v>
       </c>
       <c r="D8" s="3">
-        <f t="shared" si="0"/>
-        <v>100</v>
+        <f t="shared" si="2"/>
+        <v>50</v>
       </c>
       <c r="E8" s="3">
-        <v>4.49</v>
+        <v>4.71</v>
       </c>
       <c r="F8" s="8">
-        <f t="shared" si="3"/>
-        <v>449</v>
+        <f t="shared" ref="F8:F15" si="5">D8*E8</f>
+        <v>235.5</v>
       </c>
       <c r="G8" s="8">
         <f>SUM(F8,F9)</f>
-        <v>692</v>
+        <v>286.5</v>
       </c>
       <c r="H8" s="8">
-        <v>692</v>
+        <v>286.5</v>
       </c>
     </row>
     <row r="9" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -669,45 +669,45 @@
         <v>9</v>
       </c>
       <c r="C9" s="3">
-        <v>829</v>
+        <v>849</v>
       </c>
       <c r="D9" s="3">
-        <f t="shared" si="0"/>
-        <v>100</v>
+        <f t="shared" si="2"/>
+        <v>20</v>
       </c>
       <c r="E9" s="3">
-        <v>2.4300000000000002</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="F9" s="8">
-        <f t="shared" si="3"/>
-        <v>243.00000000000003</v>
+        <f t="shared" si="5"/>
+        <v>51</v>
       </c>
       <c r="G9" s="8"/>
       <c r="H9" s="8"/>
     </row>
     <row r="10" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
-        <v>43969</v>
+        <v>43997</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C10" s="3">
-        <v>950</v>
+        <v>1050</v>
       </c>
       <c r="D10" s="3">
-        <f t="shared" ref="D10:D13" si="4">SUM(C10,-C12)</f>
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
       <c r="E10" s="3">
         <v>4.49</v>
       </c>
       <c r="F10" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>449</v>
       </c>
       <c r="G10" s="8">
-        <f t="shared" ref="G10:G12" si="5">SUM(F10,F11)</f>
+        <f>SUM(F10,F11)</f>
         <v>692</v>
       </c>
       <c r="H10" s="8">
@@ -720,17 +720,17 @@
         <v>9</v>
       </c>
       <c r="C11" s="3">
-        <v>729</v>
+        <v>829</v>
       </c>
       <c r="D11" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
       <c r="E11" s="3">
         <v>2.4300000000000002</v>
       </c>
       <c r="F11" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>243.00000000000003</v>
       </c>
       <c r="G11" s="8"/>
@@ -738,31 +738,31 @@
     </row>
     <row r="12" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
-        <v>43710</v>
+        <v>43969</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C12" s="3">
-        <v>850</v>
+        <v>950</v>
       </c>
       <c r="D12" s="3">
-        <f t="shared" si="4"/>
-        <v>50</v>
+        <f t="shared" ref="D12:D15" si="6">SUM(C12,-C14)</f>
+        <v>100</v>
       </c>
       <c r="E12" s="3">
         <v>4.49</v>
       </c>
       <c r="F12" s="8">
-        <f t="shared" si="3"/>
-        <v>224.5</v>
+        <f t="shared" si="5"/>
+        <v>449</v>
       </c>
       <c r="G12" s="8">
-        <f t="shared" si="5"/>
-        <v>346</v>
+        <f t="shared" ref="G12:G14" si="7">SUM(F12,F13)</f>
+        <v>692</v>
       </c>
       <c r="H12" s="8">
-        <v>346</v>
+        <v>692</v>
       </c>
     </row>
     <row r="13" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -771,37 +771,50 @@
         <v>9</v>
       </c>
       <c r="C13" s="3">
-        <v>629</v>
+        <v>729</v>
       </c>
       <c r="D13" s="3">
-        <f t="shared" si="4"/>
-        <v>50</v>
+        <f t="shared" si="6"/>
+        <v>100</v>
       </c>
       <c r="E13" s="3">
         <v>2.4300000000000002</v>
       </c>
       <c r="F13" s="8">
-        <f t="shared" si="3"/>
-        <v>121.50000000000001</v>
+        <f t="shared" si="5"/>
+        <v>243.00000000000003</v>
       </c>
       <c r="G13" s="8"/>
       <c r="H13" s="8"/>
     </row>
     <row r="14" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
-        <v>43611</v>
+        <v>43710</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C14" s="3">
-        <v>800</v>
-      </c>
-      <c r="D14" s="9"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="8"/>
+        <v>850</v>
+      </c>
+      <c r="D14" s="3">
+        <f t="shared" si="6"/>
+        <v>50</v>
+      </c>
+      <c r="E14" s="3">
+        <v>4.49</v>
+      </c>
+      <c r="F14" s="8">
+        <f t="shared" si="5"/>
+        <v>224.5</v>
+      </c>
+      <c r="G14" s="8">
+        <f t="shared" si="7"/>
+        <v>346</v>
+      </c>
+      <c r="H14" s="8">
+        <v>346</v>
+      </c>
     </row>
     <row r="15" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
@@ -809,63 +822,81 @@
         <v>9</v>
       </c>
       <c r="C15" s="3">
-        <v>579</v>
-      </c>
-      <c r="D15" s="9"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
+        <v>629</v>
+      </c>
+      <c r="D15" s="3">
+        <f t="shared" si="6"/>
+        <v>50</v>
+      </c>
+      <c r="E15" s="3">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F15" s="8">
+        <f t="shared" si="5"/>
+        <v>121.50000000000001</v>
+      </c>
+      <c r="G15" s="8"/>
       <c r="H15" s="8"/>
     </row>
     <row r="16" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
+      <c r="A16" s="4">
+        <v>43611</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="3">
+        <v>800</v>
+      </c>
+      <c r="D16" s="9"/>
       <c r="E16" s="3"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
       <c r="H16" s="8"/>
     </row>
     <row r="17" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
+      <c r="B17" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="3">
+        <v>579</v>
+      </c>
+      <c r="D17" s="9"/>
       <c r="E17" s="3"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
       <c r="H17" s="8"/>
     </row>
     <row r="18" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="5"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="10"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c r="H18" s="8"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="6"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
+      <c r="A19" s="4"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="6"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
+      <c r="A20" s="4"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="6"/>
@@ -874,8 +905,8 @@
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="6"/>
@@ -884,8 +915,28 @@
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="6"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="6"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
